--- a/examples/Canada OGD/goods and services/counters.xlsx
+++ b/examples/Canada OGD/goods and services/counters.xlsx
@@ -345,7 +345,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>

--- a/examples/Canada OGD/goods and services/counters.xlsx
+++ b/examples/Canada OGD/goods and services/counters.xlsx
@@ -377,7 +377,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -394,7 +394,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -411,7 +411,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -428,7 +428,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -445,7 +445,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -462,7 +462,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -479,7 +479,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -496,7 +496,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -513,7 +513,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -530,7 +530,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -547,7 +547,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -581,7 +581,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
